--- a/biology/Zoologie/Amphiope/Amphiope.xlsx
+++ b/biology/Zoologie/Amphiope/Amphiope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphiope est un genre éteint d'oursins plats de la famille des Astriclypeidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amphiope bioculata Desmoulins, 1835; Miocène 
 Amphiope lovisatoi Cotteau, 1895; Miocène (Burdigalien); Sardaigne
@@ -544,9 +558,11 @@
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le seul autre genre à avoir deux lunules ambulacraux postérieurs est Echinodiscus[1]. Stara &amp; Borghi (2014) fournissent un compte rendu détaillé de ce genre et révisent les représentants de Sardaigne. Stara &amp; Sanciu (2014) discutent de la différenciation plus large de ce genre par rapport aux autres membres des Astriclypeidae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le seul autre genre à avoir deux lunules ambulacraux postérieurs est Echinodiscus. Stara &amp; Borghi (2014) fournissent un compte rendu détaillé de ce genre et révisent les représentants de Sardaigne. Stara &amp; Sanciu (2014) discutent de la différenciation plus large de ce genre par rapport aux autres membres des Astriclypeidae.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Louis Agassiz. 1840. Catalogus systematicus Ectyporum Echinodermatum fossilium Musei Neocomiensis, secundum ordinem zoologicum dispositus; adjectis synonymis recentioribus, nec non stratis et locis in quibus reperiuntur. Sequuntur characteres diagnostici generum novorum vel minus cognitorum, 20 pp. Oliv. Petitpierre, Neuchâtel.
 Mortensen, T. 1948. A Monograph of the Echinoidea IV.2 Clypeasteroida. C. A. Reitzel, Copenhagen.
